--- a/trust/CodeSystem-Transactions.xlsx
+++ b/trust/CodeSystem-Transactions.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-02T15:21:33+02:00</t>
+    <t>2025-10-27T08:38:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
